--- a/dados.xlsx
+++ b/dados.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D103"/>
+  <dimension ref="A1:D164"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2291,6 +2291,1104 @@
         <v>21</v>
       </c>
     </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>23/07/2021</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>10:09</t>
+        </is>
+      </c>
+      <c r="C104" t="n">
+        <v>13</v>
+      </c>
+      <c r="D104" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>23/07/2021</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>10:11</t>
+        </is>
+      </c>
+      <c r="C105" t="n">
+        <v>18</v>
+      </c>
+      <c r="D105" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>23/07/2021</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>10:14</t>
+        </is>
+      </c>
+      <c r="C106" t="n">
+        <v>13</v>
+      </c>
+      <c r="D106" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>23/07/2021</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>10:16</t>
+        </is>
+      </c>
+      <c r="C107" t="n">
+        <v>18</v>
+      </c>
+      <c r="D107" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>23/07/2021</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>10:18</t>
+        </is>
+      </c>
+      <c r="C108" t="n">
+        <v>15</v>
+      </c>
+      <c r="D108" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>23/07/2021</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>10:21</t>
+        </is>
+      </c>
+      <c r="C109" t="n">
+        <v>18</v>
+      </c>
+      <c r="D109" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>23/07/2021</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>10:23</t>
+        </is>
+      </c>
+      <c r="C110" t="n">
+        <v>10</v>
+      </c>
+      <c r="D110" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>23/07/2021</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>10:26</t>
+        </is>
+      </c>
+      <c r="C111" t="n">
+        <v>6</v>
+      </c>
+      <c r="D111" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>23/07/2021</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>10:28</t>
+        </is>
+      </c>
+      <c r="C112" t="n">
+        <v>13</v>
+      </c>
+      <c r="D112" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>23/07/2021</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>12:23</t>
+        </is>
+      </c>
+      <c r="C113" t="n">
+        <v>11</v>
+      </c>
+      <c r="D113" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>23/07/2021</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>12:25</t>
+        </is>
+      </c>
+      <c r="C114" t="n">
+        <v>9</v>
+      </c>
+      <c r="D114" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>23/07/2021</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>12:27</t>
+        </is>
+      </c>
+      <c r="C115" t="n">
+        <v>4</v>
+      </c>
+      <c r="D115" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>23/07/2021</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>12:30</t>
+        </is>
+      </c>
+      <c r="C116" t="n">
+        <v>6</v>
+      </c>
+      <c r="D116" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>23/07/2021</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>12:32</t>
+        </is>
+      </c>
+      <c r="C117" t="n">
+        <v>8</v>
+      </c>
+      <c r="D117" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>23/07/2021</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>12:35</t>
+        </is>
+      </c>
+      <c r="C118" t="n">
+        <v>5</v>
+      </c>
+      <c r="D118" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>23/07/2021</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>12:37</t>
+        </is>
+      </c>
+      <c r="C119" t="n">
+        <v>6</v>
+      </c>
+      <c r="D119" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>23/07/2021</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>12:40</t>
+        </is>
+      </c>
+      <c r="C120" t="n">
+        <v>8</v>
+      </c>
+      <c r="D120" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>23/07/2021</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>12:42</t>
+        </is>
+      </c>
+      <c r="C121" t="n">
+        <v>8</v>
+      </c>
+      <c r="D121" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>23/07/2021</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>12:44</t>
+        </is>
+      </c>
+      <c r="C122" t="n">
+        <v>10</v>
+      </c>
+      <c r="D122" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>23/07/2021</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>13:56</t>
+        </is>
+      </c>
+      <c r="C123" t="n">
+        <v>11</v>
+      </c>
+      <c r="D123" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>23/07/2021</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>13:58</t>
+        </is>
+      </c>
+      <c r="C124" t="n">
+        <v>10</v>
+      </c>
+      <c r="D124" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>23/07/2021</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>14:00</t>
+        </is>
+      </c>
+      <c r="C125" t="n">
+        <v>10</v>
+      </c>
+      <c r="D125" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>23/07/2021</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>14:03</t>
+        </is>
+      </c>
+      <c r="C126" t="n">
+        <v>13</v>
+      </c>
+      <c r="D126" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>23/07/2021</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>14:05</t>
+        </is>
+      </c>
+      <c r="C127" t="n">
+        <v>7</v>
+      </c>
+      <c r="D127" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>23/07/2021</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>14:08</t>
+        </is>
+      </c>
+      <c r="C128" t="n">
+        <v>7</v>
+      </c>
+      <c r="D128" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>23/07/2021</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>14:10</t>
+        </is>
+      </c>
+      <c r="C129" t="n">
+        <v>9</v>
+      </c>
+      <c r="D129" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>23/07/2021</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>14:12</t>
+        </is>
+      </c>
+      <c r="C130" t="n">
+        <v>10</v>
+      </c>
+      <c r="D130" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>23/07/2021</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>14:15</t>
+        </is>
+      </c>
+      <c r="C131" t="n">
+        <v>8</v>
+      </c>
+      <c r="D131" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>23/07/2021</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>14:17</t>
+        </is>
+      </c>
+      <c r="C132" t="n">
+        <v>3</v>
+      </c>
+      <c r="D132" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>23/07/2021</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>14:24</t>
+        </is>
+      </c>
+      <c r="C133" t="n">
+        <v>14</v>
+      </c>
+      <c r="D133" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>23/07/2021</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>15:02</t>
+        </is>
+      </c>
+      <c r="C134" t="n">
+        <v>1</v>
+      </c>
+      <c r="D134" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>23/07/2021</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>15:59</t>
+        </is>
+      </c>
+      <c r="C135" t="n">
+        <v>6</v>
+      </c>
+      <c r="D135" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>23/07/2021</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>16:02</t>
+        </is>
+      </c>
+      <c r="C136" t="n">
+        <v>0</v>
+      </c>
+      <c r="D136" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>23/07/2021</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>19:03</t>
+        </is>
+      </c>
+      <c r="C137" t="n">
+        <v>0</v>
+      </c>
+      <c r="D137" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>23/07/2021</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>19:05</t>
+        </is>
+      </c>
+      <c r="C138" t="n">
+        <v>5</v>
+      </c>
+      <c r="D138" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>27/07/2021</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>08:26</t>
+        </is>
+      </c>
+      <c r="C139" t="n">
+        <v>37</v>
+      </c>
+      <c r="D139" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>27/07/2021</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>08:27</t>
+        </is>
+      </c>
+      <c r="C140" t="n">
+        <v>49</v>
+      </c>
+      <c r="D140" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>27/07/2021</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>08:29</t>
+        </is>
+      </c>
+      <c r="C141" t="n">
+        <v>51</v>
+      </c>
+      <c r="D141" t="n">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>27/07/2021</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>08:32</t>
+        </is>
+      </c>
+      <c r="C142" t="n">
+        <v>54</v>
+      </c>
+      <c r="D142" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>27/07/2021</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>08:34</t>
+        </is>
+      </c>
+      <c r="C143" t="n">
+        <v>51</v>
+      </c>
+      <c r="D143" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>27/07/2021</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>08:37</t>
+        </is>
+      </c>
+      <c r="C144" t="n">
+        <v>49</v>
+      </c>
+      <c r="D144" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>27/07/2021</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>10:01</t>
+        </is>
+      </c>
+      <c r="C145" t="n">
+        <v>59</v>
+      </c>
+      <c r="D145" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>27/07/2021</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>10:03</t>
+        </is>
+      </c>
+      <c r="C146" t="n">
+        <v>47</v>
+      </c>
+      <c r="D146" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>27/07/2021</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>10:06</t>
+        </is>
+      </c>
+      <c r="C147" t="n">
+        <v>40</v>
+      </c>
+      <c r="D147" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>27/07/2021</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>10:08</t>
+        </is>
+      </c>
+      <c r="C148" t="n">
+        <v>42</v>
+      </c>
+      <c r="D148" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>27/07/2021</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>10:11</t>
+        </is>
+      </c>
+      <c r="C149" t="n">
+        <v>44</v>
+      </c>
+      <c r="D149" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>27/07/2021</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>10:13</t>
+        </is>
+      </c>
+      <c r="C150" t="n">
+        <v>36</v>
+      </c>
+      <c r="D150" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>27/07/2021</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>10:15</t>
+        </is>
+      </c>
+      <c r="C151" t="n">
+        <v>43</v>
+      </c>
+      <c r="D151" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>27/07/2021</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>10:18</t>
+        </is>
+      </c>
+      <c r="C152" t="n">
+        <v>53</v>
+      </c>
+      <c r="D152" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>27/07/2021</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>10:20</t>
+        </is>
+      </c>
+      <c r="C153" t="n">
+        <v>32</v>
+      </c>
+      <c r="D153" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>27/07/2021</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>10:23</t>
+        </is>
+      </c>
+      <c r="C154" t="n">
+        <v>40</v>
+      </c>
+      <c r="D154" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>27/07/2021</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>10:24</t>
+        </is>
+      </c>
+      <c r="C155" t="n">
+        <v>52</v>
+      </c>
+      <c r="D155" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>27/07/2021</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>10:25</t>
+        </is>
+      </c>
+      <c r="C156" t="n">
+        <v>46</v>
+      </c>
+      <c r="D156" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>27/07/2021</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>10:26</t>
+        </is>
+      </c>
+      <c r="C157" t="n">
+        <v>40</v>
+      </c>
+      <c r="D157" t="n">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>27/07/2021</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>10:28</t>
+        </is>
+      </c>
+      <c r="C158" t="n">
+        <v>60</v>
+      </c>
+      <c r="D158" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>27/07/2021</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>10:29</t>
+        </is>
+      </c>
+      <c r="C159" t="n">
+        <v>60</v>
+      </c>
+      <c r="D159" t="n">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>27/07/2021</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>10:31</t>
+        </is>
+      </c>
+      <c r="C160" t="n">
+        <v>58</v>
+      </c>
+      <c r="D160" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>27/07/2021</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>10:32</t>
+        </is>
+      </c>
+      <c r="C161" t="n">
+        <v>42</v>
+      </c>
+      <c r="D161" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>27/07/2021</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>10:33</t>
+        </is>
+      </c>
+      <c r="C162" t="n">
+        <v>52</v>
+      </c>
+      <c r="D162" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>27/07/2021</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>10:35</t>
+        </is>
+      </c>
+      <c r="C163" t="n">
+        <v>47</v>
+      </c>
+      <c r="D163" t="n">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>27/07/2021</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>10:36</t>
+        </is>
+      </c>
+      <c r="C164" t="n">
+        <v>59</v>
+      </c>
+      <c r="D164" t="n">
+        <v>23</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
